--- a/Files/Data.xlsx
+++ b/Files/Data.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8FEFF52A-056B-4318-91AC-452672A2033E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A617F311-D062-4412-BD0A-656428F3FFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:I7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>MR.A</t>
   </si>
@@ -45,6 +46,18 @@
   </si>
   <si>
     <t>SALARY</t>
+  </si>
+  <si>
+    <t>Organization name</t>
+  </si>
+  <si>
+    <t>Campaign name</t>
+  </si>
+  <si>
+    <t>BucketFeet</t>
+  </si>
+  <si>
+    <t>camp</t>
   </si>
 </sst>
 </file>
@@ -364,7 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -439,4 +452,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA32231A-33DC-4DBC-9190-619D59A4D177}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>